--- a/DesktopClient/TC_Template/Main.rvl.xlsx
+++ b/DesktopClient/TC_Template/Main.rvl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="147">
   <si>
     <t>Offset account</t>
   </si>
@@ -442,6 +442,21 @@
   </si>
   <si>
     <t>Template</t>
+  </si>
+  <si>
+    <t>DAX</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>ChangeCompany</t>
+  </si>
+  <si>
+    <t>OpenModule</t>
+  </si>
+  <si>
+    <t>Navigate</t>
   </si>
 </sst>
 </file>
@@ -465,7 +480,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="41">
     <border outline="false">
       <left/>
       <right/>
@@ -498,11 +513,26 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
@@ -530,6 +560,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="true"/>
@@ -828,7 +873,7 @@
     <outlinePr/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection activeCell="$A$1" sqref="$A$1:$A$1"/>
@@ -988,154 +1033,125 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" t="s">
+        <v>144</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" t="s">
-        <v>89</v>
-      </c>
+      <c r="A16" s="25"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
@@ -1143,75 +1159,84 @@
         <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="25"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24">
@@ -1303,46 +1328,6 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
     </row>
   </sheetData>
   <sheetProtection/>
